--- a/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200324.xlsx
+++ b/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/北大数据/hainan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hainan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7AC143-9606-884F-9436-8F96C2CAAAA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF59E7-C5C7-46FD-8077-200A0404589B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9800" yWindow="1250" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -385,6 +385,12 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -10788,45 +10794,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3046875" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5" style="13" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.4609375" style="13" customWidth="1"/>
+    <col min="18" max="18" width="26.69140625" style="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.84375" style="14" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.69140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.83203125" style="13"/>
+    <col min="40" max="40" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="17" customFormat="1">
@@ -12214,7 +12220,9 @@
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="22">
+        <v>1</v>
+      </c>
       <c r="L22" s="22"/>
       <c r="M22" s="22">
         <f>SUM(M2:M21)</f>
@@ -12365,7 +12373,7 @@
     <hyperlink ref="V2" r:id="rId1" xr:uid="{A01A5D76-AA93-704B-886A-16F99CEBB41A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -12390,10 +12398,10 @@
       <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200324.xlsx
+++ b/data/unchecked/manual_collect/china/hainan/hainanCaseStatistics_20200324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hainan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EF59E7-C5C7-46FD-8077-200A0404589B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEF5CAD-0596-4D44-A1B5-887251CEDEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="1250" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7300" yWindow="1430" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10794,14 +10794,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.84375" style="13" customWidth="1"/>
     <col min="3" max="3" width="31.84375" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.84375" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
